--- a/linecount.xlsx
+++ b/linecount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rperera/Repo/ptype-dmkd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C16F553C-82AB-A142-85AB-1FD1D2E56475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C0A75D-BDF9-554F-84D6-83CDDEA3F102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32300" yWindow="8500" windowWidth="22440" windowHeight="21140" xr2:uid="{A84981D6-9219-044D-85F4-1A874BB61147}"/>
   </bookViews>
@@ -175,7 +175,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$45</c:f>
+              <c:f>Sheet1!$A$3:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="44"/>
@@ -316,7 +316,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$45</c:f>
+              <c:f>Sheet1!$B$3:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
@@ -1194,13 +1194,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1526,153 +1526,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4319DDDA-7D02-EB4E-B1FD-F185FE03B46C}">
-  <dimension ref="A2:B45"/>
+  <dimension ref="A2:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="B2">
-        <v>3062</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="B3">
-        <v>3113</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44112</v>
+        <v>44118</v>
       </c>
       <c r="B4">
-        <v>3115</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="B5">
-        <v>3113</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44110</v>
+        <v>44111</v>
       </c>
       <c r="B6">
-        <v>3038</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44109</v>
+        <v>44110</v>
       </c>
       <c r="B7">
-        <v>3057</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44107</v>
+        <v>44109</v>
       </c>
       <c r="B8">
-        <v>3085</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44106</v>
+        <v>44107</v>
       </c>
       <c r="B9">
-        <v>3213</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44105</v>
+        <v>44106</v>
       </c>
       <c r="B10">
-        <v>3146</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="B11">
-        <v>3381</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44103</v>
+        <v>44104</v>
       </c>
       <c r="B12">
-        <v>4058</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44102</v>
+        <v>44103</v>
       </c>
       <c r="B13">
-        <v>4056</v>
+        <v>4058</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44101</v>
+        <v>44102</v>
       </c>
       <c r="B14">
-        <v>4059</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44098</v>
+        <v>44101</v>
       </c>
       <c r="B15">
-        <v>4184</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44097</v>
+        <v>44098</v>
       </c>
       <c r="B16">
-        <v>4185</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44096</v>
+        <v>44097</v>
       </c>
       <c r="B17">
-        <v>3682</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44095</v>
+        <v>44096</v>
       </c>
       <c r="B18">
-        <v>3658</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44091</v>
+        <v>44095</v>
       </c>
       <c r="B19">
         <v>3658</v>
@@ -1680,135 +1680,135 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44089</v>
+        <v>44091</v>
       </c>
       <c r="B20">
-        <v>3866</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44088</v>
+        <v>44089</v>
       </c>
       <c r="B21">
-        <v>3891</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>44084</v>
+        <v>44088</v>
       </c>
       <c r="B22">
-        <v>3941</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>44082</v>
+        <v>44084</v>
       </c>
       <c r="B23">
-        <v>3851</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>44081</v>
+        <v>44082</v>
       </c>
       <c r="B24">
-        <v>3772</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>44080</v>
+        <v>44081</v>
       </c>
       <c r="B25">
-        <v>3847</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>44079</v>
+        <v>44080</v>
       </c>
       <c r="B26">
-        <v>2948</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44077</v>
+        <v>44079</v>
       </c>
       <c r="B27">
-        <v>3071</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>44076</v>
+        <v>44077</v>
       </c>
       <c r="B28">
-        <v>2873</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>44075</v>
+        <v>44076</v>
       </c>
       <c r="B29">
-        <v>2931</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>44074</v>
+        <v>44075</v>
       </c>
       <c r="B30">
-        <v>2997</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>44070</v>
+        <v>44074</v>
       </c>
       <c r="B31">
-        <v>3327</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>44069</v>
+        <v>44070</v>
       </c>
       <c r="B32">
-        <v>3188</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>44068</v>
+        <v>44069</v>
       </c>
       <c r="B33">
-        <v>3195</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>44067</v>
+        <v>44068</v>
       </c>
       <c r="B34">
-        <v>3205</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>44040</v>
+        <v>44067</v>
       </c>
       <c r="B35">
-        <v>3204</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43966</v>
+        <v>44040</v>
       </c>
       <c r="B36">
         <v>3204</v>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43960</v>
+        <v>43966</v>
       </c>
       <c r="B37">
         <v>3204</v>
@@ -1824,23 +1824,23 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B38">
-        <v>3193</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="B39">
-        <v>3188</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43950</v>
+        <v>43957</v>
       </c>
       <c r="B40">
         <v>3188</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B41">
         <v>3188</v>
@@ -1856,33 +1856,41 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43929</v>
+        <v>43949</v>
       </c>
       <c r="B42">
-        <v>3179</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43925</v>
+        <v>43929</v>
       </c>
       <c r="B43">
-        <v>3168</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B44">
-        <v>3143</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B45">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>43922</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>3136</v>
       </c>
     </row>
